--- a/medicine/Enfance/Nos_étoiles_contraires/Nos_étoiles_contraires.xlsx
+++ b/medicine/Enfance/Nos_étoiles_contraires/Nos_étoiles_contraires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nos_%C3%A9toiles_contraires</t>
+          <t>Nos_étoiles_contraires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nos étoiles contraires (titre original : The Fault in Our Stars) est un roman pour adolescents de l'écrivain américain John Green édité en janvier 2012 par Dutton Books. 
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nos_%C3%A9toiles_contraires</t>
+          <t>Nos_étoiles_contraires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Titres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le titre original est tiré de l'acte I, scène 2 de la pièce de Shakespeare, Jules César, où Cassius dit à Brutus : 
 En français, le titre est issu de la pièce Roméo et Juliette, également écrite par Shakespeare, où le chœur dit « A pair of star-crossed lovers take their life », soit « A pris naissance, sous des étoiles contraires, un couple d'amoureux ».
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nos_%C3%A9toiles_contraires</t>
+          <t>Nos_étoiles_contraires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire se déroule à Indianapolis, Hazel Grace Lancaster est une jeune fille de 16 ans atteinte du cancer de la thyroïde.            
 Bien qu'elle s'y ennuie énormément, sa mère la force à fréquenter un groupe de soutien animé par Patrick. Un jour, lors d'une réunion du groupe, elle fait la connaissance d'Augustus Waters, un garçon de 17 ans. Il est là pour soutenir son ami, Isaac (qui est aussi l'ami de Hazel), un garçon blond aveugle.
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nos_%C3%A9toiles_contraires</t>
+          <t>Nos_étoiles_contraires</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,11 +609,13 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Il promet au public de signer chaque exemplaire précommandé. Le même jour, le roman fait son entrée dans le classement des meilleures ventes des boutiques en ligne Amazon et Barnes &amp; Noble[1]. En 2012, lors de sa sortie, le roman est tiré à 300 000 exemplaires et occupe la première place de la New York Times Best Seller list durant cinq semaines[2]. En janvier 2013, les ventes du livre approchent le million d'exemplaires[3].
-Le roman, traduit par Catherine Gibert, paraît dans les pays francophones sous le titre Nos étoiles contraires[4]. Il est traduit en plusieurs autres langues, dont l'allemand[5] et l'italien[6].
+Il promet au public de signer chaque exemplaire précommandé. Le même jour, le roman fait son entrée dans le classement des meilleures ventes des boutiques en ligne Amazon et Barnes &amp; Noble. En 2012, lors de sa sortie, le roman est tiré à 300 000 exemplaires et occupe la première place de la New York Times Best Seller list durant cinq semaines. En janvier 2013, les ventes du livre approchent le million d'exemplaires.
+Le roman, traduit par Catherine Gibert, paraît dans les pays francophones sous le titre Nos étoiles contraires. Il est traduit en plusieurs autres langues, dont l'allemand et l'italien.
 </t>
         </is>
       </c>
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nos_%C3%A9toiles_contraires</t>
+          <t>Nos_étoiles_contraires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,11 +644,13 @@
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NPR estime que le livre et le film sont parfaits pour des jeunes adolescents. Le Washington Post loue l'authenticité des personnages[7].
-The Fault in Our Stars arrive en tête de la liste des meilleurs ouvrages de fiction de l'année 2012 établie par le magazine Time[8]. Il figure à la 3e place dans la sélection des meilleurs romans pour la jeunesse de l'année 2012 publiée par Babelia, le supplément culturel du journal espagnol El País[9].
-D'après les critiques, le plus grand mérite du film comme du livre est leur façon de parler de la mort. Dans les deux œuvres, Hazel se questionne sur le temps qu'il lui reste à vivre et se demande si elle est capable de tomber amoureuse[10]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NPR estime que le livre et le film sont parfaits pour des jeunes adolescents. Le Washington Post loue l'authenticité des personnages.
+The Fault in Our Stars arrive en tête de la liste des meilleurs ouvrages de fiction de l'année 2012 établie par le magazine Time. Il figure à la 3e place dans la sélection des meilleurs romans pour la jeunesse de l'année 2012 publiée par Babelia, le supplément culturel du journal espagnol El País.
+D'après les critiques, le plus grand mérite du film comme du livre est leur façon de parler de la mort. Dans les deux œuvres, Hazel se questionne sur le temps qu'il lui reste à vivre et se demande si elle est capable de tomber amoureuse. 
 </t>
         </is>
       </c>
@@ -641,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nos_%C3%A9toiles_contraires</t>
+          <t>Nos_étoiles_contraires</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,11 +679,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Prix des Incorruptibles 2015 (niveau troisième et seconde)[11].
-Prix jeunesse des libraires du Québec 2014[12].
-(international) « Honour List » 2014[13] de l' IBBY</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix des Incorruptibles 2015 (niveau troisième et seconde).
+Prix jeunesse des libraires du Québec 2014.
+(international) « Honour List » 2014 de l' IBBY</t>
         </is>
       </c>
     </row>
@@ -673,7 +695,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nos_%C3%A9toiles_contraires</t>
+          <t>Nos_étoiles_contraires</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -691,7 +713,9 @@
           <t>Livre audio</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman est adapté en livre audio par les éditions Audiolib, lu par Jessica Monceau.
 </t>
@@ -704,7 +728,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nos_%C3%A9toiles_contraires</t>
+          <t>Nos_étoiles_contraires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -722,9 +746,11 @@
           <t>Adaptation cinématographique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fox 2000, une filiale de 20th Century Fox, acquiert les droits d'adaptation cinématographique. En 2013, le studio confie la réalisation du film, dont le scénario est signé par Scott Neustadter et Michael H. Weber, au cinéaste Josh Boone[14].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fox 2000, une filiale de 20th Century Fox, acquiert les droits d'adaptation cinématographique. En 2013, le studio confie la réalisation du film, dont le scénario est signé par Scott Neustadter et Michael H. Weber, au cinéaste Josh Boone.
 Shailene Woodley y joue le rôle de Hazel tandis que Ansel Elgort interprète celui d'Augustus.
 </t>
         </is>
